--- a/outputs-HGR-r202-archive/g__Dorea_A.xlsx
+++ b/outputs-HGR-r202-archive/g__Dorea_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,20 +474,20 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26496.fa</t>
+          <t>even_MAG-GUT44474.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.255384104016825</v>
+        <v>0.2552165491445714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3498959007444482</v>
+        <v>0.3497197868720008</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3947199952387268</v>
+        <v>0.3950636639834278</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3947199952387268</v>
+        <v>0.3950636639834278</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -495,35 +495,6 @@
         </is>
       </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT44474.fa</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.2552165491445714</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3497197868720008</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3950636639834278</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3950636639834278</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>s__Dorea_A sp900550865</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>s__Dorea_A sp900550865</t>
         </is>
